--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.45</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.35</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1547,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.14</v>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1870,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>009954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>北信瑞丰优选成长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1738</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,188 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009954</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰优选成长股票</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001829</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -940,36 +805,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009954</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰优选成长股票</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.1738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -978,36 +843,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001829</t>
+          <t>009954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
+          <t>北信瑞丰优选成长股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1016,36 +881,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>001829</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1054,36 +919,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1092,36 +957,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1130,32 +995,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1168,6 +1033,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1829,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
+++ b/数据整理/stocks/A股/深证主板/002010-传化智联.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,271 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -741,290 +1022,6 @@
       </c>
       <c r="H3" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1738</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009954</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>北信瑞丰优选成长股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001829</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1089,36 +1086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009954</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰优选成长股票</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.1738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1127,36 +1124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001829</t>
+          <t>009954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
+          <t>北信瑞丰优选成长股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1165,36 +1162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>001829</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1203,36 +1200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1241,36 +1238,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1279,32 +1276,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1317,6 +1314,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1770,7 +2051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1978,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2108,98 +2389,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>